--- a/client/data/問題.xlsx
+++ b/client/data/問題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kasaiyuuichi/Library/Mobile Documents/com~apple~CloudDocs/GitHub/processing-python-typingWar/client/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{916AE402-3400-A940-B3CB-D28941B86499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ABA7B3-00F4-734E-80E6-2BF1CD67B2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="5580" windowWidth="28300" windowHeight="17440" xr2:uid="{B400E042-53B5-F244-BBDE-FB30396327E0}"/>
+    <workbookView xWindow="19900" yWindow="5020" windowWidth="28300" windowHeight="17440" xr2:uid="{B400E042-53B5-F244-BBDE-FB30396327E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="383">
   <si>
     <t>沈むように溶けてゆくように</t>
   </si>
@@ -594,13 +594,755 @@
   </si>
   <si>
     <t>futariimayorunikakedashiteiku</t>
+  </si>
+  <si>
+    <t>嗚呼、いつもの様に</t>
+  </si>
+  <si>
+    <t>過ぎる日々にあくびが出る</t>
+  </si>
+  <si>
+    <t>さんざめく夜、越え、今日も</t>
+  </si>
+  <si>
+    <t>渋谷の街に朝が降る</t>
+  </si>
+  <si>
+    <t>どこか虚しいような</t>
+  </si>
+  <si>
+    <t>そんな気持ち</t>
+  </si>
+  <si>
+    <t>つまらないな</t>
+  </si>
+  <si>
+    <t>でもそれでいい</t>
+  </si>
+  <si>
+    <t>そんなもんさ</t>
+  </si>
+  <si>
+    <t>これでいい</t>
+  </si>
+  <si>
+    <t>知らず知らず隠してた</t>
+  </si>
+  <si>
+    <t>本当の声を響かせてよ、ほら</t>
+  </si>
+  <si>
+    <t>見ないフリしていても</t>
+  </si>
+  <si>
+    <t>確かにそこにある</t>
+  </si>
+  <si>
+    <t>感じたままに描く</t>
+  </si>
+  <si>
+    <t>自分で選んだその色で</t>
+  </si>
+  <si>
+    <t>眠い空気纏う朝に</t>
+  </si>
+  <si>
+    <t>訪れた青い世界</t>
+  </si>
+  <si>
+    <t>好きなものを好きだと言う</t>
+  </si>
+  <si>
+    <t>怖くて仕方ないけど</t>
+  </si>
+  <si>
+    <t>本当の自分</t>
+  </si>
+  <si>
+    <t>出会えた気がしたんだ</t>
+  </si>
+  <si>
+    <t>嗚呼、手を伸ばせば伸ばすほどに</t>
+  </si>
+  <si>
+    <t>遠くへゆく</t>
+  </si>
+  <si>
+    <t>思うようにいかない、今日も</t>
+  </si>
+  <si>
+    <t>また慌ただしくもがいてる</t>
+  </si>
+  <si>
+    <t>悔しい気持ちも</t>
+  </si>
+  <si>
+    <t>ただ情けなくて</t>
+  </si>
+  <si>
+    <t>涙が出る</t>
+  </si>
+  <si>
+    <t>踏み込むほど</t>
+  </si>
+  <si>
+    <t>苦しくなる</t>
+  </si>
+  <si>
+    <t>痛くもなる</t>
+  </si>
+  <si>
+    <t>感じたままに進む</t>
+  </si>
+  <si>
+    <t>自分で選んだこの道を</t>
+  </si>
+  <si>
+    <t>重いまぶた擦る夜に</t>
+  </si>
+  <si>
+    <t>しがみついた青い誓い</t>
+  </si>
+  <si>
+    <t>好きなことを続けること</t>
+  </si>
+  <si>
+    <t>それは「楽しい」だけじゃない</t>
+  </si>
+  <si>
+    <t>本当にできる？</t>
+  </si>
+  <si>
+    <t>不安になるけど</t>
+  </si>
+  <si>
+    <t>何枚でも</t>
+  </si>
+  <si>
+    <t>ほら何枚でも</t>
+  </si>
+  <si>
+    <t>自信がないから描いてきたんだよ</t>
+  </si>
+  <si>
+    <t>何回でも</t>
+  </si>
+  <si>
+    <t>ほら何回でも</t>
+  </si>
+  <si>
+    <t>積み上げてきたことが武器になる</t>
+  </si>
+  <si>
+    <t>周りを見たって</t>
+  </si>
+  <si>
+    <t>誰と比べたって</t>
+  </si>
+  <si>
+    <t>僕にしかできないことはなんだ</t>
+  </si>
+  <si>
+    <t>今でも自信なんかない</t>
+  </si>
+  <si>
+    <t>それでも</t>
+  </si>
+  <si>
+    <t>soredemo</t>
+  </si>
+  <si>
+    <t>感じたことない気持ち</t>
+  </si>
+  <si>
+    <t>知らずにいた想い</t>
+  </si>
+  <si>
+    <t>あの日踏み出して</t>
+  </si>
+  <si>
+    <t>初めて感じたこの痛みも全部</t>
+  </si>
+  <si>
+    <t>好きなものと向き合うことで</t>
+  </si>
+  <si>
+    <t>触れたまだ小さな光</t>
+  </si>
+  <si>
+    <t>大丈夫、行こう、あとは楽しむだけだ</t>
+  </si>
+  <si>
+    <t>全てを賭けて描く</t>
+  </si>
+  <si>
+    <t>自分にしか出せない色で</t>
+  </si>
+  <si>
+    <t>朝も夜も走り続け</t>
+  </si>
+  <si>
+    <t>見つけ出した青い光</t>
+  </si>
+  <si>
+    <t>好きなものと向き合うこと</t>
+  </si>
+  <si>
+    <t>今だって怖いことだけど</t>
+  </si>
+  <si>
+    <t>もう今はあの日の透明な僕じゃない</t>
+  </si>
+  <si>
+    <t>ありのままの</t>
+  </si>
+  <si>
+    <t>かけがえの無い僕だ</t>
+  </si>
+  <si>
+    <t>確かにそこに今もそこにあるよ</t>
+  </si>
+  <si>
+    <t>本当の声を響かせてよ、さあ</t>
+  </si>
+  <si>
+    <t>確かにそこに君の中に</t>
+  </si>
+  <si>
+    <t>ああいつものように</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すぎるひびにあくびがでる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんざめくよるこえきょうも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しぶやのまちにあさがふる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どこかむなしいような</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そんなきもち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまらないな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でもしれでいい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そんなもんさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これでいい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しらずしらずかくしてた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほんとうのこえをきかせてよほら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みないふりしていても</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たしかにそこにある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんじたままにえがく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じぶんでえらんだそのいろで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねむいくうきまとうあさに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとずれたあおいせかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すきなものをすきだという</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こわくてしかたないけど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほんとうのじぶん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>であえたきがしたんだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ああてをのばせばのばすほどに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とおくへゆく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもうようにいかないきょうも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>またあわただしくもがいている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くやしいきもちも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただなさけなくて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なみだがでる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふみこむほど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くるしくなる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いたくもなる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんじたままにすすむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じぶんでえらんだこのみちを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもいまぶたこするよるに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しがみついたあおいちかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すきなことをつづけること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それはたのしいだけじゃない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほんとうにできる？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふあんになるけど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんまいでも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほらなんまいでも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じしんがないからえがいてきたんだよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんかいでも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほらなんかいでも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つみあげてきたことがぶきになる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まわりもみたって</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だれとくらべたって</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼくにしかできないことはなんだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いまでもじしんなんかない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それでも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんじたことないきもち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しらずにいたおもい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あのひふみだして</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はじめてかんじたこのいたみもぜんぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すきなものとむきあうことで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふれたまだちいさなひかり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいじょうぶいこうあとはたのしむだけだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてをかけてえがく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じぶんにしかだせないいろで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あさもよるもはしりつづけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みつけだしたあおいひかり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すきなものとむきあうこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いまだってこわいことだけど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もういまはあのひのとうめいなぼくじゃない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありのままの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かけがえのないぼくだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほんとうのこえをひびかせてよほら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たしかにそこにいまもそこにあるよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほんとうのこえをひびかせてよさあ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たしかにそこにきみのなかに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3A3A3A"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>群青</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">グンジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐんじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gunjo</t>
+  </si>
+  <si>
+    <t>aaitsumonoyoni</t>
+  </si>
+  <si>
+    <t>sugiruhibiniakubigaderu</t>
+  </si>
+  <si>
+    <t>sanzamekuyorukoekyomo</t>
+  </si>
+  <si>
+    <t>shibuyanomachiniasagafuru</t>
+  </si>
+  <si>
+    <t>dokokamunashiiyona</t>
+  </si>
+  <si>
+    <t>sonnakimochi</t>
+  </si>
+  <si>
+    <t>tsumaranaina</t>
+  </si>
+  <si>
+    <t>demoshiredeii</t>
+  </si>
+  <si>
+    <t>sonnamonsa</t>
+  </si>
+  <si>
+    <t>koredeii</t>
+  </si>
+  <si>
+    <t>shirazushirazukakushiteta</t>
+  </si>
+  <si>
+    <t>hontonokoeokikaseteyohora</t>
+  </si>
+  <si>
+    <t>minaifurishiteitemo</t>
+  </si>
+  <si>
+    <t>tashikanisokoniaru</t>
+  </si>
+  <si>
+    <t>kanjitamamaniegaku</t>
+  </si>
+  <si>
+    <t>jibunderandasonoirode</t>
+  </si>
+  <si>
+    <t>nemuikukimatoasani</t>
+  </si>
+  <si>
+    <t>otozuretaaoisekai</t>
+  </si>
+  <si>
+    <t>sukinamonosukidatoiu</t>
+  </si>
+  <si>
+    <t>kowakuteshikatanaikedo</t>
+  </si>
+  <si>
+    <t>hontonojibun</t>
+  </si>
+  <si>
+    <t>deaetakigashitanda</t>
+  </si>
+  <si>
+    <t>aateonobasebanobasuhodoni</t>
+  </si>
+  <si>
+    <t>tokuheyuku</t>
+  </si>
+  <si>
+    <t>omoyoniikanaikyomo</t>
+  </si>
+  <si>
+    <t>mataawatadashikumogaiteiru</t>
+  </si>
+  <si>
+    <t>kuyashiikimochimo</t>
+  </si>
+  <si>
+    <t>tadanasakenakute</t>
+  </si>
+  <si>
+    <t>namidagaderu</t>
+  </si>
+  <si>
+    <t>fumikomuhodo</t>
+  </si>
+  <si>
+    <t>kurushikunaru</t>
+  </si>
+  <si>
+    <t>itakumonaru</t>
+  </si>
+  <si>
+    <t>kanjitamamanisusumu</t>
+  </si>
+  <si>
+    <t>jibunderandakonomichio</t>
+  </si>
+  <si>
+    <t>omoimabutakosuruyoruni</t>
+  </si>
+  <si>
+    <t>shigamitsuitaaoichikai</t>
+  </si>
+  <si>
+    <t>sukinakototsuzukerukoto</t>
+  </si>
+  <si>
+    <t>sorehatanoshiidakejanai</t>
+  </si>
+  <si>
+    <r>
+      <t>hontonidekiru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3A3A3A"/>
+        <rFont val="A-OTF Haruhi Gakuen L"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>？</t>
+    </r>
+  </si>
+  <si>
+    <t>fuanninarukedo</t>
+  </si>
+  <si>
+    <t>nammaidemo</t>
+  </si>
+  <si>
+    <t>horanammaidemo</t>
+  </si>
+  <si>
+    <t>jishinganaikaraegaitekitandayo</t>
+  </si>
+  <si>
+    <t>nankaidemo</t>
+  </si>
+  <si>
+    <t>horanankaidemo</t>
+  </si>
+  <si>
+    <t>tsumiagetekitakotogabukininaru</t>
+  </si>
+  <si>
+    <t>mawarimomitatte</t>
+  </si>
+  <si>
+    <t>daretokurabetatte</t>
+  </si>
+  <si>
+    <t>bokunishikadekinaikotohananda</t>
+  </si>
+  <si>
+    <t>imademojishinnankanai</t>
+  </si>
+  <si>
+    <t>kanjitakotonaikimochi</t>
+  </si>
+  <si>
+    <t>shirazuniitaomoi</t>
+  </si>
+  <si>
+    <t>anohifumidashite</t>
+  </si>
+  <si>
+    <t>hajimetekanjitakonoitamimozembu</t>
+  </si>
+  <si>
+    <t>sukinamonotomukiaukotode</t>
+  </si>
+  <si>
+    <t>furetamadachiisanahikari</t>
+  </si>
+  <si>
+    <t>daijobuikoatohatanoshimudakeda</t>
+  </si>
+  <si>
+    <t>subeteokaketegaku</t>
+  </si>
+  <si>
+    <t>jibunnishikadasenaiirode</t>
+  </si>
+  <si>
+    <t>asamoyorumohashiritsuzuke</t>
+  </si>
+  <si>
+    <t>mitsukedashitaaoihikari</t>
+  </si>
+  <si>
+    <t>sukinamonotomukiaukoto</t>
+  </si>
+  <si>
+    <t>imadattekowaikotodakedo</t>
+  </si>
+  <si>
+    <t>moimahaanohinotomeinabokujanai</t>
+  </si>
+  <si>
+    <t>arinomamano</t>
+  </si>
+  <si>
+    <t>kakegaenonaibokuda</t>
+  </si>
+  <si>
+    <t>hontonokoeohibikaseteyohora</t>
+  </si>
+  <si>
+    <t>tashikanisokoniimamosokoniaruyo</t>
+  </si>
+  <si>
+    <t>hontonokoeohibikaseteyosaa</t>
+  </si>
+  <si>
+    <t>tashikanisokonikiminonakani</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -621,6 +1363,20 @@
       <color rgb="FF3A3A3A"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="A-OTF Haruhi Gakuen L"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -966,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F0E656-A45D-A84B-B10E-2B8721593F7A}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1615,6 +2371,842 @@
         <v>167</v>
       </c>
     </row>
+    <row r="59" spans="1:3" ht="24">
+      <c r="A59" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B59" t="s">
+        <v>311</v>
+      </c>
+      <c r="C59" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
